--- a/tables/HTML_counts_fullset.xlsx
+++ b/tables/HTML_counts_fullset.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>92.28712871287129</v>
+        <v>93.89267120544653</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.712871287128713</v>
+        <v>6.107328794553464</v>
       </c>
     </row>
   </sheetData>
